--- a/chromHMM/ChromHMM_pancreas.xlsx
+++ b/chromHMM/ChromHMM_pancreas.xlsx
@@ -10,6 +10,7 @@
     <sheet name="TM" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="EL" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="NT" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Subtype" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -5842,25 +5843,25 @@
         <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00000207601784680292</v>
+        <v>0.00000245114720074967</v>
       </c>
       <c r="E17" t="n">
-        <v>0.350401212189589</v>
+        <v>0.352961347818316</v>
       </c>
       <c r="F17" t="n">
         <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="H17" t="n">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="I17" t="n">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="J17" t="n">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="K17" t="n">
         <v>1400</v>
@@ -5869,10 +5870,10 @@
         <v>1149</v>
       </c>
       <c r="M17" t="n">
-        <v>5394</v>
+        <v>5356</v>
       </c>
       <c r="N17" t="n">
-        <v>180973</v>
+        <v>181011</v>
       </c>
       <c r="O17" t="s">
         <v>25</v>
@@ -5909,25 +5910,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000000000299967752025019</v>
+        <v>0.000000000380813784603572</v>
       </c>
       <c r="E18" t="n">
-        <v>0.233674823320687</v>
+        <v>0.235381636908019</v>
       </c>
       <c r="F18" t="n">
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="H18" t="n">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="I18" t="n">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="J18" t="n">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="K18" t="n">
         <v>1530</v>
@@ -5936,10 +5937,10 @@
         <v>1433</v>
       </c>
       <c r="M18" t="n">
-        <v>5396</v>
+        <v>5358</v>
       </c>
       <c r="N18" t="n">
-        <v>180689</v>
+        <v>180727</v>
       </c>
       <c r="O18" t="s">
         <v>30</v>
@@ -5985,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="H19" t="n">
         <v>1832</v>
@@ -6003,10 +6004,10 @@
         <v>52</v>
       </c>
       <c r="M19" t="n">
-        <v>5406</v>
+        <v>5368</v>
       </c>
       <c r="N19" t="n">
-        <v>182070</v>
+        <v>182108</v>
       </c>
       <c r="O19" t="s">
         <v>33</v>
@@ -6043,37 +6044,37 @@
         <v>24</v>
       </c>
       <c r="D20" t="n">
-        <v>2.36246224299294</v>
+        <v>2.41631369109114</v>
       </c>
       <c r="E20" t="n">
-        <v>1.54832065515737</v>
+        <v>1.55970288869738</v>
       </c>
       <c r="F20" t="n">
         <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H20" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I20" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J20" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K20" t="n">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L20" t="n">
         <v>982</v>
       </c>
       <c r="M20" t="n">
-        <v>5361</v>
+        <v>5323</v>
       </c>
       <c r="N20" t="n">
-        <v>181140</v>
+        <v>181178</v>
       </c>
       <c r="O20" t="s">
         <v>36</v>
@@ -6093,7 +6094,7 @@
         <v>38</v>
       </c>
       <c r="V20" t="n">
-        <v>0.014182871962172</v>
+        <v>0.0126154493766708</v>
       </c>
       <c r="W20" t="n">
         <v>27327</v>
@@ -6110,37 +6111,37 @@
         <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>15.7831896789996</v>
+        <v>15.8870534915075</v>
       </c>
       <c r="E21" t="n">
-        <v>1.39999683035627</v>
+        <v>1.40302821747742</v>
       </c>
       <c r="F21" t="n">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G21" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H21" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I21" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J21" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K21" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L21" t="n">
-        <v>19341</v>
+        <v>19345</v>
       </c>
       <c r="M21" t="n">
-        <v>4635</v>
+        <v>4601</v>
       </c>
       <c r="N21" t="n">
-        <v>162781</v>
+        <v>162815</v>
       </c>
       <c r="O21" t="s">
         <v>39</v>
@@ -6160,7 +6161,7 @@
         <v>41</v>
       </c>
       <c r="V21" t="n">
-        <v>0.000000000000000876642000933889</v>
+        <v>0.000000000000000688251299278561</v>
       </c>
       <c r="W21" t="n">
         <v>107355</v>
@@ -6177,10 +6178,10 @@
         <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>1.27427733367222</v>
+        <v>1.29998273656867</v>
       </c>
       <c r="E22" t="n">
-        <v>1.49443207761201</v>
+        <v>1.5053671978445</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -6189,25 +6190,25 @@
         <v>637</v>
       </c>
       <c r="H22" t="n">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I22" t="n">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="J22" t="n">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="K22" t="n">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="L22" t="n">
         <v>474</v>
       </c>
       <c r="M22" t="n">
-        <v>5385</v>
+        <v>5347</v>
       </c>
       <c r="N22" t="n">
-        <v>181648</v>
+        <v>181686</v>
       </c>
       <c r="O22" t="s">
         <v>42</v>
@@ -6227,7 +6228,7 @@
         <v>44</v>
       </c>
       <c r="V22" t="n">
-        <v>0.159029690599342</v>
+        <v>0.149890052289983</v>
       </c>
       <c r="W22" t="n">
         <v>13152</v>
@@ -6244,37 +6245,37 @@
         <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>52.7785129880835</v>
+        <v>53.3745377618376</v>
       </c>
       <c r="E23" t="n">
-        <v>2.18834758027588</v>
+        <v>2.20129120350199</v>
       </c>
       <c r="F23" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G23" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H23" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I23" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J23" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K23" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L23" t="n">
-        <v>8893</v>
+        <v>8894</v>
       </c>
       <c r="M23" t="n">
-        <v>4860</v>
+        <v>4823</v>
       </c>
       <c r="N23" t="n">
-        <v>173229</v>
+        <v>173266</v>
       </c>
       <c r="O23" t="s">
         <v>45</v>
@@ -6294,7 +6295,7 @@
         <v>47</v>
       </c>
       <c r="V23" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000141623059932418</v>
+        <v>0.000000000000000000000000000000000000000000000000000036062211416615</v>
       </c>
       <c r="W23" t="n">
         <v>101919</v>
@@ -6311,10 +6312,10 @@
         <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>40.8155337339979</v>
+        <v>41.171751986791</v>
       </c>
       <c r="E24" t="n">
-        <v>3.980346357948</v>
+        <v>4.01017489888582</v>
       </c>
       <c r="F24" t="n">
         <v>153</v>
@@ -6323,25 +6324,25 @@
         <v>252</v>
       </c>
       <c r="H24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J24" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K24" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L24" t="n">
         <v>1323</v>
       </c>
       <c r="M24" t="n">
-        <v>5253</v>
+        <v>5215</v>
       </c>
       <c r="N24" t="n">
-        <v>180799</v>
+        <v>180837</v>
       </c>
       <c r="O24" t="s">
         <v>48</v>
@@ -6361,7 +6362,7 @@
         <v>50</v>
       </c>
       <c r="V24" t="n">
-        <v>0.000000000000000000000000000000000000000115600764241281</v>
+        <v>0.000000000000000000000000000000000000000050902891457123</v>
       </c>
       <c r="W24" t="n">
         <v>9442</v>
@@ -6378,37 +6379,37 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>67.321995717261</v>
+        <v>67.7760579175575</v>
       </c>
       <c r="E25" t="n">
-        <v>2.05397999809632</v>
+        <v>2.06259899659562</v>
       </c>
       <c r="F25" t="n">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G25" t="n">
         <v>198</v>
       </c>
       <c r="H25" t="n">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I25" t="n">
         <v>193</v>
       </c>
       <c r="J25" t="n">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K25" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L25" t="n">
-        <v>15165</v>
+        <v>15168</v>
       </c>
       <c r="M25" t="n">
-        <v>4556</v>
+        <v>4521</v>
       </c>
       <c r="N25" t="n">
-        <v>166957</v>
+        <v>166992</v>
       </c>
       <c r="O25" t="s">
         <v>51</v>
@@ -6428,7 +6429,7 @@
         <v>53</v>
       </c>
       <c r="V25" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000045838887883784</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000161128317489497</v>
       </c>
       <c r="W25" t="n">
         <v>46361</v>
@@ -6454,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="H26" t="n">
         <v>1832</v>
@@ -6472,10 +6473,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>5406</v>
+        <v>5368</v>
       </c>
       <c r="N26" t="n">
-        <v>182122</v>
+        <v>182160</v>
       </c>
       <c r="O26" t="s">
         <v>54</v>
@@ -6512,10 +6513,10 @@
         <v>24</v>
       </c>
       <c r="D27" t="n">
-        <v>1.9948371894097</v>
+        <v>2.00316873395299</v>
       </c>
       <c r="E27" t="n">
-        <v>7.77918955285141</v>
+        <v>7.83580954647736</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
@@ -6527,22 +6528,22 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="J27" t="n">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="K27" t="n">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L27" t="n">
         <v>13</v>
       </c>
       <c r="M27" t="n">
-        <v>5403</v>
+        <v>5365</v>
       </c>
       <c r="N27" t="n">
-        <v>182109</v>
+        <v>182147</v>
       </c>
       <c r="O27" t="s">
         <v>57</v>
@@ -6562,7 +6563,7 @@
         <v>59</v>
       </c>
       <c r="V27" t="n">
-        <v>0.032399687759922</v>
+        <v>0.0317840532996864</v>
       </c>
       <c r="W27" t="n">
         <v>166</v>
@@ -6579,37 +6580,37 @@
         <v>24</v>
       </c>
       <c r="D28" t="n">
-        <v>0.387894349862564</v>
+        <v>0.390258457640102</v>
       </c>
       <c r="E28" t="n">
-        <v>1.9818716636607</v>
+        <v>1.99631902004905</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H28" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I28" t="n">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="J28" t="n">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="K28" t="n">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L28" t="n">
         <v>17</v>
       </c>
       <c r="M28" t="n">
-        <v>5405</v>
+        <v>5367</v>
       </c>
       <c r="N28" t="n">
-        <v>182105</v>
+        <v>182143</v>
       </c>
       <c r="O28" t="s">
         <v>60</v>
@@ -6646,10 +6647,10 @@
         <v>24</v>
       </c>
       <c r="D29" t="n">
-        <v>9.51129529450325</v>
+        <v>9.5460176257957</v>
       </c>
       <c r="E29" t="n">
-        <v>16.1994818222592</v>
+        <v>16.3177257925736</v>
       </c>
       <c r="F29" t="n">
         <v>12</v>
@@ -6661,22 +6662,22 @@
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="J29" t="n">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="K29" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L29" t="n">
         <v>25</v>
       </c>
       <c r="M29" t="n">
-        <v>5394</v>
+        <v>5356</v>
       </c>
       <c r="N29" t="n">
-        <v>182097</v>
+        <v>182135</v>
       </c>
       <c r="O29" t="s">
         <v>63</v>
@@ -6696,7 +6697,7 @@
         <v>65</v>
       </c>
       <c r="V29" t="n">
-        <v>0.00000000141774898288141</v>
+        <v>0.00000000130881123112269</v>
       </c>
       <c r="W29" t="n">
         <v>212</v>
@@ -6713,10 +6714,10 @@
         <v>24</v>
       </c>
       <c r="D30" t="n">
-        <v>8.2101685694808</v>
+        <v>8.355594864514</v>
       </c>
       <c r="E30" t="n">
-        <v>1.96190076874019</v>
+        <v>1.97645024534344</v>
       </c>
       <c r="F30" t="n">
         <v>94</v>
@@ -6725,25 +6726,25 @@
         <v>427</v>
       </c>
       <c r="H30" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I30" t="n">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J30" t="n">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="K30" t="n">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L30" t="n">
         <v>1628</v>
       </c>
       <c r="M30" t="n">
-        <v>5312</v>
+        <v>5274</v>
       </c>
       <c r="N30" t="n">
-        <v>180494</v>
+        <v>180532</v>
       </c>
       <c r="O30" t="s">
         <v>66</v>
@@ -6763,7 +6764,7 @@
         <v>68</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0000000274978371427194</v>
+        <v>0.0000000196730746760348</v>
       </c>
       <c r="W30" t="n">
         <v>3786</v>
@@ -6780,37 +6781,37 @@
         <v>24</v>
       </c>
       <c r="D31" t="n">
-        <v>53.5627313736167</v>
+        <v>53.3693158472908</v>
       </c>
       <c r="E31" t="n">
-        <v>1.97882727779071</v>
+        <v>1.98147307373912</v>
       </c>
       <c r="F31" t="n">
-        <v>4925</v>
+        <v>4891</v>
       </c>
       <c r="G31" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H31" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I31" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K31" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L31" t="n">
-        <v>152625</v>
+        <v>152659</v>
       </c>
       <c r="M31" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="N31" t="n">
-        <v>29497</v>
+        <v>29501</v>
       </c>
       <c r="O31" t="s">
         <v>69</v>
@@ -6830,7 +6831,7 @@
         <v>71</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000233807664276869</v>
+        <v>0.0000000000000000000000000000000000000000000000000000363354977948366</v>
       </c>
       <c r="W31" t="n">
         <v>81762</v>
@@ -6932,37 +6933,37 @@
         <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>56.2455363406493</v>
+        <v>53.9633882195412</v>
       </c>
       <c r="E2" t="n">
-        <v>19.124917929164</v>
+        <v>18.6068558374423</v>
       </c>
       <c r="F2" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H2" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I2" t="n">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="J2" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="L2" t="n">
-        <v>3912</v>
+        <v>3914</v>
       </c>
       <c r="M2" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N2" t="n">
-        <v>293562</v>
+        <v>293563</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -6982,7 +6983,7 @@
         <v>29</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000024431768978601</v>
+        <v>0.00000000000000000000000000000000000000000000000000000465743443130721</v>
       </c>
       <c r="W2" t="n">
         <v>18498</v>
@@ -6999,31 +7000,31 @@
         <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>137.258193891611</v>
+        <v>133.351953196269</v>
       </c>
       <c r="E3" t="n">
-        <v>33.9061044042736</v>
+        <v>33.1600759657184</v>
       </c>
       <c r="F3" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G3" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H3" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="I3" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J3" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K3" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L3" t="n">
-        <v>6178</v>
+        <v>6181</v>
       </c>
       <c r="M3" t="n">
         <v>192</v>
@@ -7049,7 +7050,7 @@
         <v>32</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000482219307234416</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000381892029503872</v>
       </c>
       <c r="W3" t="n">
         <v>22533</v>
@@ -7066,37 +7067,37 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>15.9556926657019</v>
+        <v>16.0069642411074</v>
       </c>
       <c r="E4" t="n">
-        <v>39.3915387937268</v>
+        <v>39.7836742902829</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H4" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I4" t="n">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="J4" t="n">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="K4" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="L4" t="n">
         <v>309</v>
       </c>
       <c r="M4" t="n">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N4" t="n">
-        <v>297165</v>
+        <v>297168</v>
       </c>
       <c r="O4" t="s">
         <v>33</v>
@@ -7116,7 +7117,7 @@
         <v>35</v>
       </c>
       <c r="V4" t="n">
-        <v>0.000000000000000301804102228236</v>
+        <v>0.000000000000000269352802959605</v>
       </c>
       <c r="W4" t="n">
         <v>673</v>
@@ -7133,19 +7134,19 @@
         <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>0.979797157375388</v>
+        <v>0.995099168670963</v>
       </c>
       <c r="E5" t="n">
-        <v>1.78766645155689</v>
+        <v>1.80440550845108</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="H5" t="n">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I5" t="n">
         <v>1665</v>
@@ -7160,10 +7161,10 @@
         <v>3563</v>
       </c>
       <c r="M5" t="n">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N5" t="n">
-        <v>293911</v>
+        <v>293914</v>
       </c>
       <c r="O5" t="s">
         <v>36</v>
@@ -7183,7 +7184,7 @@
         <v>38</v>
       </c>
       <c r="V5" t="n">
-        <v>0.131904282110784</v>
+        <v>0.127759872525703</v>
       </c>
       <c r="W5" t="n">
         <v>27327</v>
@@ -7200,37 +7201,37 @@
         <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>28.1721194028803</v>
+        <v>28.1543474429787</v>
       </c>
       <c r="E6" t="n">
-        <v>3.61360702532723</v>
+        <v>3.63176801751553</v>
       </c>
       <c r="F6" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" t="n">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H6" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I6" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J6" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="K6" t="n">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L6" t="n">
-        <v>58559</v>
+        <v>58560</v>
       </c>
       <c r="M6" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N6" t="n">
-        <v>238915</v>
+        <v>238917</v>
       </c>
       <c r="O6" t="s">
         <v>39</v>
@@ -7250,7 +7251,7 @@
         <v>41</v>
       </c>
       <c r="V6" t="n">
-        <v>0.000000000000000000000000000224067850696089</v>
+        <v>0.000000000000000000000000000235071079291996</v>
       </c>
       <c r="W6" t="n">
         <v>107355</v>
@@ -7267,25 +7268,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>6.43432907002941</v>
+        <v>6.49208169777109</v>
       </c>
       <c r="E7" t="n">
-        <v>4.48980036537136</v>
+        <v>4.53352247018842</v>
       </c>
       <c r="F7" t="n">
         <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="H7" t="n">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="I7" t="n">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="J7" t="n">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="K7" t="n">
         <v>1070</v>
@@ -7294,10 +7295,10 @@
         <v>3774</v>
       </c>
       <c r="M7" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N7" t="n">
-        <v>293700</v>
+        <v>293703</v>
       </c>
       <c r="O7" t="s">
         <v>42</v>
@@ -7317,7 +7318,7 @@
         <v>44</v>
       </c>
       <c r="V7" t="n">
-        <v>0.000000769214625296066</v>
+        <v>0.000000677150314587484</v>
       </c>
       <c r="W7" t="n">
         <v>13152</v>
@@ -7334,31 +7335,31 @@
         <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>111.716699782214</v>
+        <v>109.595186703595</v>
       </c>
       <c r="E8" t="n">
-        <v>13.416742732308</v>
+        <v>13.2336013751777</v>
       </c>
       <c r="F8" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G8" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H8" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K8" t="n">
         <v>297</v>
       </c>
       <c r="L8" t="n">
-        <v>39052</v>
+        <v>39055</v>
       </c>
       <c r="M8" t="n">
         <v>109</v>
@@ -7384,7 +7385,7 @@
         <v>47</v>
       </c>
       <c r="V8" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000133488740369633</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000177885018130347</v>
       </c>
       <c r="W8" t="n">
         <v>101919</v>
@@ -7401,37 +7402,37 @@
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>74.3202809290371</v>
+        <v>74.5902772255971</v>
       </c>
       <c r="E9" t="n">
-        <v>43.3920902119414</v>
+        <v>43.8792509088484</v>
       </c>
       <c r="F9" t="n">
         <v>63</v>
       </c>
       <c r="G9" t="n">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H9" t="n">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="I9" t="n">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="J9" t="n">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K9" t="n">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L9" t="n">
         <v>1608</v>
       </c>
       <c r="M9" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N9" t="n">
-        <v>295866</v>
+        <v>295869</v>
       </c>
       <c r="O9" t="s">
         <v>48</v>
@@ -7451,7 +7452,7 @@
         <v>50</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000232449161519666</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000126446493211957</v>
       </c>
       <c r="W9" t="n">
         <v>9442</v>
@@ -7468,37 +7469,37 @@
         <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>31.8822144899282</v>
+        <v>32.1940920074364</v>
       </c>
       <c r="E10" t="n">
-        <v>5.90241219468623</v>
+        <v>5.97534812801262</v>
       </c>
       <c r="F10" t="n">
         <v>84</v>
       </c>
       <c r="G10" t="n">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="H10" t="n">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="I10" t="n">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J10" t="n">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="K10" t="n">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="L10" t="n">
         <v>16268</v>
       </c>
       <c r="M10" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N10" t="n">
-        <v>281206</v>
+        <v>281209</v>
       </c>
       <c r="O10" t="s">
         <v>51</v>
@@ -7518,7 +7519,7 @@
         <v>53</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0000000000000000000000000000000453449462283208</v>
+        <v>0.0000000000000000000000000000000225219353493671</v>
       </c>
       <c r="W10" t="n">
         <v>46361</v>
@@ -7562,10 +7563,10 @@
         <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N11" t="n">
-        <v>297471</v>
+        <v>297474</v>
       </c>
       <c r="O11" t="s">
         <v>54</v>
@@ -7602,37 +7603,37 @@
         <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>4.79315073037642</v>
+        <v>4.80495461468474</v>
       </c>
       <c r="E12" t="n">
-        <v>68.2013218674487</v>
+        <v>68.7244550106783</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="H12" t="n">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I12" t="n">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="J12" t="n">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="K12" t="n">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="L12" t="n">
         <v>40</v>
       </c>
       <c r="M12" t="n">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N12" t="n">
-        <v>297434</v>
+        <v>297437</v>
       </c>
       <c r="O12" t="s">
         <v>57</v>
@@ -7652,7 +7653,7 @@
         <v>59</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0000307336193722846</v>
+        <v>0.0000299997257538027</v>
       </c>
       <c r="W12" t="n">
         <v>166</v>
@@ -7669,16 +7670,16 @@
         <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>12.7339351239589</v>
+        <v>12.7617907053135</v>
       </c>
       <c r="E13" t="n">
-        <v>150.715831456248</v>
+        <v>151.217506933248</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H13" t="n">
         <v>14</v>
@@ -7696,10 +7697,10 @@
         <v>43</v>
       </c>
       <c r="M13" t="n">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N13" t="n">
-        <v>297431</v>
+        <v>297434</v>
       </c>
       <c r="O13" t="s">
         <v>60</v>
@@ -7719,7 +7720,7 @@
         <v>62</v>
       </c>
       <c r="V13" t="n">
-        <v>0.000000000000471849591398642</v>
+        <v>0.000000000000443130190081969</v>
       </c>
       <c r="W13" t="n">
         <v>150</v>
@@ -7736,37 +7737,37 @@
         <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>2.80552151692735</v>
+        <v>2.81332070976736</v>
       </c>
       <c r="E14" t="n">
-        <v>36.2696711595728</v>
+        <v>36.6062827080964</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H14" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="J14" t="n">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="K14" t="n">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="L14" t="n">
         <v>50</v>
       </c>
       <c r="M14" t="n">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N14" t="n">
-        <v>297424</v>
+        <v>297427</v>
       </c>
       <c r="O14" t="s">
         <v>63</v>
@@ -7786,7 +7787,7 @@
         <v>65</v>
       </c>
       <c r="V14" t="n">
-        <v>0.00254575478073108</v>
+        <v>0.0025025825298623</v>
       </c>
       <c r="W14" t="n">
         <v>212</v>
@@ -7803,37 +7804,37 @@
         <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>16.3472900567482</v>
+        <v>16.4437923589423</v>
       </c>
       <c r="E15" t="n">
-        <v>9.88984336664847</v>
+        <v>9.9899425130273</v>
       </c>
       <c r="F15" t="n">
         <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H15" t="n">
         <v>693</v>
       </c>
       <c r="I15" t="n">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="J15" t="n">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="K15" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="L15" t="n">
         <v>2550</v>
       </c>
       <c r="M15" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N15" t="n">
-        <v>294924</v>
+        <v>294927</v>
       </c>
       <c r="O15" t="s">
         <v>66</v>
@@ -7853,7 +7854,7 @@
         <v>68</v>
       </c>
       <c r="V15" t="n">
-        <v>0.000000000000000125001248802606</v>
+        <v>0.000000000000000100682852007491</v>
       </c>
       <c r="W15" t="n">
         <v>3786</v>
@@ -7873,19 +7874,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.361175571925688</v>
+        <v>0.354224998155634</v>
       </c>
       <c r="F16" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G16" t="n">
         <v>1749</v>
       </c>
       <c r="H16" t="n">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="I16" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J16" t="n">
         <v>1749</v>
@@ -7894,7 +7895,7 @@
         <v>1200</v>
       </c>
       <c r="L16" t="n">
-        <v>212050</v>
+        <v>212053</v>
       </c>
       <c r="M16" t="n">
         <v>174</v>
@@ -8906,6 +8907,2101 @@
       </c>
       <c r="N31" t="n">
         <v>85563</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" t="s">
+        <v>70</v>
+      </c>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31" t="s">
+        <v>71</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>81762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1432</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.52917067466453</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.24226105913194</v>
+      </c>
+      <c r="F2" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586</v>
+      </c>
+      <c r="H2" t="n">
+        <v>650</v>
+      </c>
+      <c r="I2" t="n">
+        <v>851</v>
+      </c>
+      <c r="J2" t="n">
+        <v>851</v>
+      </c>
+      <c r="K2" t="n">
+        <v>696</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2392</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2045</v>
+      </c>
+      <c r="N2" t="n">
+        <v>179813</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0000000961228611477586</v>
+      </c>
+      <c r="W2" t="n">
+        <v>18498</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1433</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.3825928935847</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.8439384836108</v>
+      </c>
+      <c r="F3" t="n">
+        <v>98</v>
+      </c>
+      <c r="G3" t="n">
+        <v>418</v>
+      </c>
+      <c r="H3" t="n">
+        <v>461</v>
+      </c>
+      <c r="I3" t="n">
+        <v>636</v>
+      </c>
+      <c r="J3" t="n">
+        <v>636</v>
+      </c>
+      <c r="K3" t="n">
+        <v>505</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3074</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2008</v>
+      </c>
+      <c r="N3" t="n">
+        <v>179131</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0000000000000000188853833394026</v>
+      </c>
+      <c r="W3" t="n">
+        <v>22533</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1434</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.73135353564125</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.42469666713073</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>675</v>
+      </c>
+      <c r="H4" t="n">
+        <v>72</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1437</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1437</v>
+      </c>
+      <c r="K4" t="n">
+        <v>728</v>
+      </c>
+      <c r="L4" t="n">
+        <v>128</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2098</v>
+      </c>
+      <c r="N4" t="n">
+        <v>182077</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.00052388706002899</v>
+      </c>
+      <c r="W4" t="n">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.60672695586063</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.90580122248746</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38</v>
+      </c>
+      <c r="G5" t="n">
+        <v>679</v>
+      </c>
+      <c r="H5" t="n">
+        <v>718</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1036</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1036</v>
+      </c>
+      <c r="K5" t="n">
+        <v>811</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1740</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2068</v>
+      </c>
+      <c r="N5" t="n">
+        <v>180465</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0006939021767652</v>
+      </c>
+      <c r="W5" t="n">
+        <v>27327</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1436</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.687111033137</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.22891578671401</v>
+      </c>
+      <c r="F6" t="n">
+        <v>560</v>
+      </c>
+      <c r="G6" t="n">
+        <v>176</v>
+      </c>
+      <c r="H6" t="n">
+        <v>655</v>
+      </c>
+      <c r="I6" t="n">
+        <v>144</v>
+      </c>
+      <c r="J6" t="n">
+        <v>655</v>
+      </c>
+      <c r="K6" t="n">
+        <v>325</v>
+      </c>
+      <c r="L6" t="n">
+        <v>25471</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1546</v>
+      </c>
+      <c r="N6" t="n">
+        <v>156734</v>
+      </c>
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000222469909971449</v>
+      </c>
+      <c r="W6" t="n">
+        <v>107355</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1437</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.451464271103</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.87335358812787</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>247</v>
+      </c>
+      <c r="H7" t="n">
+        <v>42</v>
+      </c>
+      <c r="I7" t="n">
+        <v>704</v>
+      </c>
+      <c r="J7" t="n">
+        <v>704</v>
+      </c>
+      <c r="K7" t="n">
+        <v>331</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1081</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="N7" t="n">
+        <v>181124</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.000000000000000000000000000000000000027273052949432</v>
+      </c>
+      <c r="W7" t="n">
+        <v>13152</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1438</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>168.792324919293</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.61446329326771</v>
+      </c>
+      <c r="F8" t="n">
+        <v>612</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>118</v>
+      </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>135</v>
+      </c>
+      <c r="K8" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14856</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1494</v>
+      </c>
+      <c r="N8" t="n">
+        <v>167349</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000192065817034914</v>
+      </c>
+      <c r="W8" t="n">
+        <v>101919</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1439</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.508592180604709</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.15663546209745</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>909</v>
+      </c>
+      <c r="H9" t="n">
+        <v>883</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1271</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1271</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1273</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2089</v>
+      </c>
+      <c r="N9" t="n">
+        <v>180932</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.649738970827845</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9442</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0419235912174674</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.895373358594879</v>
+      </c>
+      <c r="F10" t="n">
+        <v>145</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1069</v>
+      </c>
+      <c r="I10" t="n">
+        <v>481</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="K10" t="n">
+        <v>900</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13899</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1961</v>
+      </c>
+      <c r="N10" t="n">
+        <v>168306</v>
+      </c>
+      <c r="O10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>46361</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1426</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1713</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1816</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1816</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1816</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1780</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2106</v>
+      </c>
+      <c r="N11" t="n">
+        <v>182205</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1427</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.707378876631888</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.8081462189242</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>876</v>
+      </c>
+      <c r="H12" t="n">
+        <v>105</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1750</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1750</v>
+      </c>
+      <c r="K12" t="n">
+        <v>910</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2105</v>
+      </c>
+      <c r="N12" t="n">
+        <v>182187</v>
+      </c>
+      <c r="O12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.426591303053253</v>
+      </c>
+      <c r="W12" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1428</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1713</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1816</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1816</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1816</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1780</v>
+      </c>
+      <c r="L13" t="n">
+        <v>27</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2106</v>
+      </c>
+      <c r="N13" t="n">
+        <v>182178</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1429</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1713</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1816</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1816</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1816</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1780</v>
+      </c>
+      <c r="L14" t="n">
+        <v>26</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2106</v>
+      </c>
+      <c r="N14" t="n">
+        <v>182179</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14" t="s">
+        <v>65</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1430</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.24395839550882</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.41361940807563</v>
+      </c>
+      <c r="F15" t="n">
+        <v>26</v>
+      </c>
+      <c r="G15" t="n">
+        <v>808</v>
+      </c>
+      <c r="H15" t="n">
+        <v>809</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1157</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1157</v>
+      </c>
+      <c r="K15" t="n">
+        <v>925</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1597</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2080</v>
+      </c>
+      <c r="N15" t="n">
+        <v>180608</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>67</v>
+      </c>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.134438984627118</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1431</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.451223072582318</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1276</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1713</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1510</v>
+      </c>
+      <c r="I16" t="n">
+        <v>110</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1713</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1110</v>
+      </c>
+      <c r="L16" t="n">
+        <v>140861</v>
+      </c>
+      <c r="M16" t="n">
+        <v>830</v>
+      </c>
+      <c r="N16" t="n">
+        <v>41344</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16" t="s">
+        <v>71</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>81762</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1432</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8.09579231058845</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.50052710169222</v>
+      </c>
+      <c r="F17" t="n">
+        <v>53</v>
+      </c>
+      <c r="G17" t="n">
+        <v>799</v>
+      </c>
+      <c r="H17" t="n">
+        <v>691</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1016</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1016</v>
+      </c>
+      <c r="K17" t="n">
+        <v>835</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1592</v>
+      </c>
+      <c r="N17" t="n">
+        <v>180266</v>
+      </c>
+      <c r="O17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.0000000191229940589305</v>
+      </c>
+      <c r="W17" t="n">
+        <v>18498</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1433</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="n">
+        <v>32.6565010607642</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.24549775272358</v>
+      </c>
+      <c r="F18" t="n">
+        <v>111</v>
+      </c>
+      <c r="G18" t="n">
+        <v>180</v>
+      </c>
+      <c r="H18" t="n">
+        <v>440</v>
+      </c>
+      <c r="I18" t="n">
+        <v>623</v>
+      </c>
+      <c r="J18" t="n">
+        <v>623</v>
+      </c>
+      <c r="K18" t="n">
+        <v>414</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3061</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1534</v>
+      </c>
+      <c r="N18" t="n">
+        <v>179605</v>
+      </c>
+      <c r="O18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.0000000000000000000000000000000233411050994438</v>
+      </c>
+      <c r="W18" t="n">
+        <v>22533</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1434</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.152004389947979</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.82243476694066</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1593</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1717</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1827</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1827</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1710</v>
+      </c>
+      <c r="L19" t="n">
+        <v>135</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1644</v>
+      </c>
+      <c r="N19" t="n">
+        <v>182531</v>
+      </c>
+      <c r="O19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.842703532176626</v>
+      </c>
+      <c r="W19" t="n">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.05123635542818</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.92259763929961</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1048</v>
+      </c>
+      <c r="H20" t="n">
+        <v>870</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1331</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1331</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1080</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1748</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1615</v>
+      </c>
+      <c r="N20" t="n">
+        <v>180918</v>
+      </c>
+      <c r="O20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.00161546421411358</v>
+      </c>
+      <c r="W20" t="n">
+        <v>27327</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1436</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14.5076099541823</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.64605320489277</v>
+      </c>
+      <c r="F21" t="n">
+        <v>349</v>
+      </c>
+      <c r="G21" t="n">
+        <v>549</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>173</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>574</v>
+      </c>
+      <c r="L21" t="n">
+        <v>25682</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1296</v>
+      </c>
+      <c r="N21" t="n">
+        <v>156984</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0000000000000107823315349966</v>
+      </c>
+      <c r="W21" t="n">
+        <v>107355</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1437</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.148059122483017</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.864530813264419</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1596</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1678</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1650</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1678</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1640</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1155</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1636</v>
+      </c>
+      <c r="N22" t="n">
+        <v>181511</v>
+      </c>
+      <c r="O22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22" t="s">
+        <v>44</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.84879530862936</v>
+      </c>
+      <c r="W22" t="n">
+        <v>13152</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1438</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38.8756780081038</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.5246814007681</v>
+      </c>
+      <c r="F23" t="n">
+        <v>306</v>
+      </c>
+      <c r="G23" t="n">
+        <v>131</v>
+      </c>
+      <c r="H23" t="n">
+        <v>686</v>
+      </c>
+      <c r="I23" t="n">
+        <v>201</v>
+      </c>
+      <c r="J23" t="n">
+        <v>686</v>
+      </c>
+      <c r="K23" t="n">
+        <v>339</v>
+      </c>
+      <c r="L23" t="n">
+        <v>15162</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1339</v>
+      </c>
+      <c r="N23" t="n">
+        <v>167504</v>
+      </c>
+      <c r="O23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23" t="s">
+        <v>47</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.0000000000000000000000000000000000000193617976165251</v>
+      </c>
+      <c r="W23" t="n">
+        <v>101919</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1439</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20.2088718719303</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.0821514491059</v>
+      </c>
+      <c r="F24" t="n">
+        <v>55</v>
+      </c>
+      <c r="G24" t="n">
+        <v>374</v>
+      </c>
+      <c r="H24" t="n">
+        <v>356</v>
+      </c>
+      <c r="I24" t="n">
+        <v>997</v>
+      </c>
+      <c r="J24" t="n">
+        <v>997</v>
+      </c>
+      <c r="K24" t="n">
+        <v>576</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1235</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1590</v>
+      </c>
+      <c r="N24" t="n">
+        <v>181431</v>
+      </c>
+      <c r="O24" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24" t="s">
+        <v>50</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.0000000000000000000314884661397713</v>
+      </c>
+      <c r="W24" t="n">
+        <v>9442</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="n">
+        <v>44.7405155116703</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.75269467297227</v>
+      </c>
+      <c r="F25" t="n">
+        <v>301</v>
+      </c>
+      <c r="G25" t="n">
+        <v>80</v>
+      </c>
+      <c r="H25" t="n">
+        <v>638</v>
+      </c>
+      <c r="I25" t="n">
+        <v>204</v>
+      </c>
+      <c r="J25" t="n">
+        <v>638</v>
+      </c>
+      <c r="K25" t="n">
+        <v>307</v>
+      </c>
+      <c r="L25" t="n">
+        <v>13743</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1344</v>
+      </c>
+      <c r="N25" t="n">
+        <v>168923</v>
+      </c>
+      <c r="O25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25" t="s">
+        <v>53</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.0000000000000000000000000000000000000000000432802221585357</v>
+      </c>
+      <c r="W25" t="n">
+        <v>46361</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1426</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1862</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1862</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1862</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1862</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1860</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1645</v>
+      </c>
+      <c r="N26" t="n">
+        <v>182666</v>
+      </c>
+      <c r="O26" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26" t="s">
+        <v>56</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1427</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.90977980593734</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13.0776697942213</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1149</v>
+      </c>
+      <c r="H27" t="n">
+        <v>14</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1791</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1791</v>
+      </c>
+      <c r="K27" t="n">
+        <v>985</v>
+      </c>
+      <c r="L27" t="n">
+        <v>17</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1643</v>
+      </c>
+      <c r="N27" t="n">
+        <v>182649</v>
+      </c>
+      <c r="O27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>58</v>
+      </c>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.020407750938253</v>
+      </c>
+      <c r="W27" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1428</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.667552060455037</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.27281452873793</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1358</v>
+      </c>
+      <c r="H28" t="n">
+        <v>433</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1827</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1827</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1210</v>
+      </c>
+      <c r="L28" t="n">
+        <v>26</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1644</v>
+      </c>
+      <c r="N28" t="n">
+        <v>182640</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>61</v>
+      </c>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28" t="s">
+        <v>62</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.301608203356885</v>
+      </c>
+      <c r="W28" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1429</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.80060278445878</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14.5115275619765</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1065</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1757</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1757</v>
+      </c>
+      <c r="K29" t="n">
+        <v>943</v>
+      </c>
+      <c r="L29" t="n">
+        <v>23</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1642</v>
+      </c>
+      <c r="N29" t="n">
+        <v>182643</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" t="s">
+        <v>64</v>
+      </c>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29" t="s">
+        <v>65</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.00283101772035246</v>
+      </c>
+      <c r="W29" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1430</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.29156054343091</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.77606175714428</v>
+      </c>
+      <c r="F30" t="n">
+        <v>39</v>
+      </c>
+      <c r="G30" t="n">
+        <v>840</v>
+      </c>
+      <c r="H30" t="n">
+        <v>635</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1186</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1186</v>
+      </c>
+      <c r="K30" t="n">
+        <v>887</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1584</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1606</v>
+      </c>
+      <c r="N30" t="n">
+        <v>181082</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" t="s">
+        <v>67</v>
+      </c>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30" t="s">
+        <v>68</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.000000115892451720139</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1431</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.00132213525100876</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.855905094558833</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1222</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1824</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1689</v>
+      </c>
+      <c r="I31" t="n">
+        <v>24</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1824</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1180</v>
+      </c>
+      <c r="L31" t="n">
+        <v>140915</v>
+      </c>
+      <c r="M31" t="n">
+        <v>423</v>
+      </c>
+      <c r="N31" t="n">
+        <v>41751</v>
       </c>
       <c r="O31" t="s">
         <v>69</v>
